--- a/biology/Botanique/Salix_cavaleriei/Salix_cavaleriei.xlsx
+++ b/biology/Botanique/Salix_cavaleriei/Salix_cavaleriei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix cavaleriei est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un grand arbre avec une écorce crevassée gris brun. Les feuilles mesurent de 4 à 11 centimètres. Il se rencontre en Chine.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix cavaleriei est un arbre atteignant de 18 à 25 m de haut avec un tronc allant jusqu'à 50 cm de diamètre à hauteur de poitrine. Les branches jeunes sont rouge brun et minces ; elles sont duveteuses mais deviennent glabres en vieillissant. Le pétiole va de 6 à 10 mm de long. Le limbe est brillant, lancéolé ou elliptique-lancéolé, il mesure de  4 à 11 cm de long et de 2 à 4 cm de large. Le dessus des feuilles est vert, le dessous verdâtre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix cavaleriei est un arbre atteignant de 18 à 25 m de haut avec un tronc allant jusqu'à 50 cm de diamètre à hauteur de poitrine. Les branches jeunes sont rouge brun et minces ; elles sont duveteuses mais deviennent glabres en vieillissant. Le pétiole va de 6 à 10 mm de long. Le limbe est brillant, lancéolé ou elliptique-lancéolé, il mesure de  4 à 11 cm de long et de 2 à 4 cm de large. Le dessus des feuilles est vert, le dessous verdâtre.
 Les chatons mâles mesurent de 3 à  4,5 cm de long pour environ 8 mm de diamètre. Les fleurs femelles portent deux stigmates.
-La floraison a lieu avec l'apparition des feuilles de mars à avril, les graines sont mûres d'avril à mai[3].
+La floraison a lieu avec l'apparition des feuilles de mars à avril, les graines sont mûres d'avril à mai.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce pousse dans les provinces de Guangxi, Guizhou, Sichuan et Yunnan, en Chine. Elle affectionne le bord des cours d'eau et la lisière des zones boisées, à une altitude comprise entre 1 800 et 2 500 mètres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce pousse dans les provinces de Guangxi, Guizhou, Sichuan et Yunnan, en Chine. Elle affectionne le bord des cours d'eau et la lisière des zones boisées, à une altitude comprise entre 1 800 et 2 500 mètres.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pleiarina cavaleriei (H.Lév.) N.Chao &amp; G.T.Gong,
 Salix polyandra H.Lév.,
 Salix pyi H.Lév.,
-Salix yunnanensis H.Lév.[3],[1].</t>
+Salix yunnanensis H.Lév.,.</t>
         </is>
       </c>
     </row>
